--- a/Template List.xlsx
+++ b/Template List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{05A999A5-7D42-49D0-84BF-6076CD5D938F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B7A4574D-0D63-435D-87E3-140C3C610DA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,8 +358,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF252424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +391,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -475,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -502,12 +515,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,7 +808,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -855,13 +872,13 @@
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="13">
         <v>29709</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -923,13 +940,13 @@
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="13">
         <v>29606</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -955,7 +972,7 @@
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -970,13 +987,13 @@
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="13">
         <v>29598</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -993,13 +1010,13 @@
       <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="13">
         <v>29711</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1052,13 +1069,13 @@
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1073,13 +1090,13 @@
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="13">
         <v>29585</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1096,13 +1113,13 @@
       <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="13">
         <v>29717</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1155,13 +1172,13 @@
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="13">
         <v>29723</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1232,13 +1249,13 @@
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="13">
         <v>29589</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1246,7 +1263,7 @@
       <c r="A46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="1">
@@ -1255,13 +1272,13 @@
     </row>
     <row r="47" spans="1:4" ht="33" customHeight="1">
       <c r="A47" s="4"/>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="13">
         <v>29591</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1305,7 +1322,7 @@
     </row>
     <row r="52" spans="1:4" ht="19.5" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1378,13 +1395,13 @@
     </row>
     <row r="60" spans="1:4" ht="19.5" customHeight="1">
       <c r="A60" s="4"/>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="13">
         <v>29612</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="13" t="s">
         <v>74</v>
       </c>
     </row>
